--- a/Prototypes/Barley/Observations/RS2014_15VWC_layers.xlsx
+++ b/Prototypes/Barley/Observations/RS2014_15VWC_layers.xlsx
@@ -49,19 +49,19 @@
     <t>RS2014_15CultDashIrrHigh</t>
   </si>
   <si>
-    <t>RS2014_15CultDashIrrMed</t>
+    <t>RS2014_15CultDashIrrLow</t>
   </si>
   <si>
-    <t>RS2014_15CultDashIrrLow</t>
+    <t>RS2014_15CultDashIrrMed</t>
   </si>
   <si>
     <t>RS2014_15CultOmakaIrrHigh</t>
   </si>
   <si>
-    <t>RS2014_15CultOmakaIrrMed</t>
+    <t>RS2014_15CultOmakaIrrLow</t>
   </si>
   <si>
-    <t>RS2014_15CultOmakaIrrLow</t>
+    <t>RS2014_15CultOmakaIrrMed</t>
   </si>
 </sst>
 </file>
